--- a/EnvNP_Myanmar.xlsx
+++ b/EnvNP_Myanmar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuvvvvv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F34C078-F320-5E4E-A313-594A75BA75E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B28F02-D87E-D646-820A-5F757A4AD854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="1220" windowWidth="27640" windowHeight="15320" xr2:uid="{C3408861-9AFE-8541-8964-136511DD0D1A}"/>
+    <workbookView xWindow="9300" yWindow="1000" windowWidth="27640" windowHeight="15320" xr2:uid="{C3408861-9AFE-8541-8964-136511DD0D1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>Myanmar Environment Rehabilitation-conservation Network (MERN)</t>
   </si>
@@ -258,12 +258,42 @@
   <si>
     <t>Yes - businesses</t>
   </si>
+  <si>
+    <t>Name of organisation</t>
+  </si>
+  <si>
+    <t>Description of organisation</t>
+  </si>
+  <si>
+    <t>Mission/ Objectives/ Purpose</t>
+  </si>
+  <si>
+    <t>Programmes/ projects</t>
+  </si>
+  <si>
+    <t>Funding sources</t>
+  </si>
+  <si>
+    <t>Collaboration with government / businesses</t>
+  </si>
+  <si>
+    <t>Choice of Climate action</t>
+  </si>
+  <si>
+    <t>No. of employees</t>
+  </si>
+  <si>
+    <t>Geographical focus</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,13 +315,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -306,12 +348,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,70 +673,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3628063D-0FE8-E940-8535-8E8C57868A1F}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H2" s="2">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>7</v>
@@ -702,20 +747,22 @@
     </row>
     <row r="3" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -724,7 +771,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>8</v>
@@ -732,31 +779,29 @@
     </row>
     <row r="4" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2">
-        <v>82</v>
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>8</v>
@@ -764,31 +809,31 @@
     </row>
     <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>8</v>
@@ -796,28 +841,28 @@
     </row>
     <row r="6" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
+      <c r="H6" s="2">
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>33</v>
@@ -828,28 +873,28 @@
     </row>
     <row r="7" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>33</v>
@@ -860,25 +905,25 @@
     </row>
     <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
@@ -892,25 +937,25 @@
     </row>
     <row r="9" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
@@ -919,20 +964,52 @@
         <v>33</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{C75DB95B-A634-784A-B01E-ABF169B8039F}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{04BDC28C-4CF3-E04F-BE75-C903574F3881}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{02E9AB82-3C13-604E-915B-BE38921898A8}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{45DE565C-FF98-D341-81C1-FEFC19A85981}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{92ACCB41-5DF2-4844-8955-C14D381C96AC}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{069B549B-2A20-9F4B-90DD-7407ED651B6C}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{EB7CCF85-48A5-7E4E-8FF2-CAC8A394A526}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{73EA0F65-F8F2-3943-8F36-CA99B72B12A7}"/>
-    <hyperlink ref="A9" r:id="rId9" xr:uid="{ABF1B59B-69E3-314B-AF25-C913A4858C5A}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C75DB95B-A634-784A-B01E-ABF169B8039F}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{04BDC28C-4CF3-E04F-BE75-C903574F3881}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{02E9AB82-3C13-604E-915B-BE38921898A8}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{45DE565C-FF98-D341-81C1-FEFC19A85981}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{92ACCB41-5DF2-4844-8955-C14D381C96AC}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{069B549B-2A20-9F4B-90DD-7407ED651B6C}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{EB7CCF85-48A5-7E4E-8FF2-CAC8A394A526}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{73EA0F65-F8F2-3943-8F36-CA99B72B12A7}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{ABF1B59B-69E3-314B-AF25-C913A4858C5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
